--- a/team_specific_matrix/Mercer_B.xlsx
+++ b/team_specific_matrix/Mercer_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2145454545454545</v>
+        <v>0.2144927536231884</v>
       </c>
       <c r="C2">
-        <v>0.52</v>
+        <v>0.5304347826086957</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01454545454545455</v>
+        <v>0.01159420289855072</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.16</v>
+        <v>0.1536231884057971</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09090909090909091</v>
+        <v>0.08985507246376812</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03378378378378379</v>
+        <v>0.0267379679144385</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01351351351351351</v>
+        <v>0.0106951871657754</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.777027027027027</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1756756756756757</v>
+        <v>0.1978609625668449</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06818181818181818</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7727272727272727</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1590909090909091</v>
+        <v>0.1754385964912281</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04891304347826087</v>
+        <v>0.04424778761061947</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02717391304347826</v>
+        <v>0.02212389380530973</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08695652173913043</v>
+        <v>0.07964601769911504</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2989130434782609</v>
+        <v>0.2876106194690266</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0108695652173913</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1630434782608696</v>
+        <v>0.1769911504424779</v>
       </c>
       <c r="R6">
-        <v>0.03804347826086957</v>
+        <v>0.04867256637168142</v>
       </c>
       <c r="S6">
-        <v>0.3260869565217391</v>
+        <v>0.331858407079646</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1260504201680672</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03361344537815126</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05042016806722689</v>
+        <v>0.0457516339869281</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1176470588235294</v>
+        <v>0.1437908496732026</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03361344537815126</v>
+        <v>0.0261437908496732</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2016806722689076</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="R7">
-        <v>0.06722689075630252</v>
+        <v>0.0718954248366013</v>
       </c>
       <c r="S7">
-        <v>0.3697478991596639</v>
+        <v>0.3856209150326798</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1159420289855072</v>
+        <v>0.1245059288537549</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03864734299516908</v>
+        <v>0.03952569169960474</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07246376811594203</v>
+        <v>0.07312252964426877</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1328502415458937</v>
+        <v>0.1284584980237154</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01207729468599034</v>
+        <v>0.01383399209486166</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1594202898550725</v>
+        <v>0.158102766798419</v>
       </c>
       <c r="R8">
-        <v>0.09178743961352658</v>
+        <v>0.08102766798418973</v>
       </c>
       <c r="S8">
-        <v>0.3768115942028986</v>
+        <v>0.3814229249011858</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1171875</v>
+        <v>0.1118421052631579</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.015625</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0703125</v>
+        <v>0.07236842105263158</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0703125</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0234375</v>
+        <v>0.04605263157894737</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.171875</v>
+        <v>0.1644736842105263</v>
       </c>
       <c r="R9">
-        <v>0.125</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="S9">
-        <v>0.40625</v>
+        <v>0.3815789473684211</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1255020080321285</v>
+        <v>0.1292962356792144</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01807228915662651</v>
+        <v>0.0204582651391162</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06425702811244979</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1154618473895582</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02108433734939759</v>
+        <v>0.0220949263502455</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1957831325301205</v>
+        <v>0.2004909983633388</v>
       </c>
       <c r="R10">
-        <v>0.06626506024096386</v>
+        <v>0.07037643207855974</v>
       </c>
       <c r="S10">
-        <v>0.393574297188755</v>
+        <v>0.3780687397708674</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1462264150943396</v>
+        <v>0.1485507246376812</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1037735849056604</v>
+        <v>0.1123188405797101</v>
       </c>
       <c r="K11">
-        <v>0.2216981132075472</v>
+        <v>0.2210144927536232</v>
       </c>
       <c r="L11">
-        <v>0.5141509433962265</v>
+        <v>0.5036231884057971</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01415094339622642</v>
+        <v>0.01449275362318841</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6636363636363637</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2909090909090909</v>
+        <v>0.2836879432624114</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.00909090909090909</v>
+        <v>0.01418439716312057</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03636363636363636</v>
+        <v>0.0425531914893617</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6296296296296297</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2592592592592592</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1111111111111111</v>
+        <v>0.08571428571428572</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03267973856209151</v>
+        <v>0.03626943005181347</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1764705882352941</v>
+        <v>0.1865284974093264</v>
       </c>
       <c r="I15">
-        <v>0.05882352941176471</v>
+        <v>0.04663212435233161</v>
       </c>
       <c r="J15">
-        <v>0.3398692810457516</v>
+        <v>0.3264248704663212</v>
       </c>
       <c r="K15">
-        <v>0.06535947712418301</v>
+        <v>0.06217616580310881</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0457516339869281</v>
+        <v>0.04663212435233161</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2810457516339869</v>
+        <v>0.2953367875647668</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03825136612021858</v>
+        <v>0.03524229074889868</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.185792349726776</v>
+        <v>0.1938325991189427</v>
       </c>
       <c r="I16">
-        <v>0.0546448087431694</v>
+        <v>0.05286343612334802</v>
       </c>
       <c r="J16">
-        <v>0.4316939890710382</v>
+        <v>0.4229074889867842</v>
       </c>
       <c r="K16">
-        <v>0.1092896174863388</v>
+        <v>0.118942731277533</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01092896174863388</v>
+        <v>0.01762114537444934</v>
       </c>
       <c r="N16">
-        <v>0.00546448087431694</v>
+        <v>0.004405286343612335</v>
       </c>
       <c r="O16">
-        <v>0.06010928961748634</v>
+        <v>0.05286343612334802</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1038251366120219</v>
+        <v>0.1013215859030837</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02678571428571428</v>
+        <v>0.02877697841726619</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2470238095238095</v>
+        <v>0.2470023980815348</v>
       </c>
       <c r="I17">
-        <v>0.07142857142857142</v>
+        <v>0.0671462829736211</v>
       </c>
       <c r="J17">
-        <v>0.3928571428571428</v>
+        <v>0.3836930455635492</v>
       </c>
       <c r="K17">
-        <v>0.0744047619047619</v>
+        <v>0.07913669064748201</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.005952380952380952</v>
+        <v>0.009592326139088728</v>
       </c>
       <c r="N17">
-        <v>0.002976190476190476</v>
+        <v>0.002398081534772182</v>
       </c>
       <c r="O17">
-        <v>0.05654761904761905</v>
+        <v>0.05755395683453238</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1220238095238095</v>
+        <v>0.1247002398081535</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.005917159763313609</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2222222222222222</v>
+        <v>0.2248520710059172</v>
       </c>
       <c r="I18">
-        <v>0.1037037037037037</v>
+        <v>0.09467455621301775</v>
       </c>
       <c r="J18">
-        <v>0.4518518518518518</v>
+        <v>0.4437869822485207</v>
       </c>
       <c r="K18">
-        <v>0.07407407407407407</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02222222222222222</v>
+        <v>0.01775147928994083</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.03703703703703703</v>
+        <v>0.04142011834319527</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08888888888888889</v>
+        <v>0.09467455621301775</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01725790987535954</v>
+        <v>0.01755786113328013</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2272291466922339</v>
+        <v>0.2274541101356744</v>
       </c>
       <c r="I19">
-        <v>0.06807286673058485</v>
+        <v>0.06863527533918595</v>
       </c>
       <c r="J19">
-        <v>0.3547459252157239</v>
+        <v>0.3591380686352754</v>
       </c>
       <c r="K19">
-        <v>0.09491850431447747</v>
+        <v>0.1005586592178771</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02013422818791946</v>
+        <v>0.01995211492418196</v>
       </c>
       <c r="N19">
-        <v>0.002876318312559923</v>
+        <v>0.003192338387869114</v>
       </c>
       <c r="O19">
-        <v>0.05369127516778523</v>
+        <v>0.05506783719074222</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1610738255033557</v>
+        <v>0.1484437350359138</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Mercer_B.xlsx
+++ b/team_specific_matrix/Mercer_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2144927536231884</v>
+        <v>0.2164948453608248</v>
       </c>
       <c r="C2">
-        <v>0.5304347826086957</v>
+        <v>0.5309278350515464</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01159420289855072</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1536231884057971</v>
+        <v>0.154639175257732</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08985507246376812</v>
+        <v>0.08762886597938144</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0267379679144385</v>
+        <v>0.02369668246445497</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0106951871657754</v>
+        <v>0.01895734597156398</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7647058823529411</v>
+        <v>0.7819905213270142</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1978609625668449</v>
+        <v>0.1753554502369668</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08771929824561403</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7368421052631579</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1754385964912281</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04424778761061947</v>
+        <v>0.0398406374501992</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02212389380530973</v>
+        <v>0.0199203187250996</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07964601769911504</v>
+        <v>0.08764940239043825</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2876106194690266</v>
+        <v>0.2788844621513944</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.008849557522123894</v>
+        <v>0.00796812749003984</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1769911504424779</v>
+        <v>0.1752988047808765</v>
       </c>
       <c r="R6">
-        <v>0.04867256637168142</v>
+        <v>0.05179282868525897</v>
       </c>
       <c r="S6">
-        <v>0.331858407079646</v>
+        <v>0.3386454183266932</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1111111111111111</v>
+        <v>0.1213872832369942</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0392156862745098</v>
+        <v>0.03468208092485549</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0457516339869281</v>
+        <v>0.04046242774566474</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1437908496732026</v>
+        <v>0.1329479768786127</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0261437908496732</v>
+        <v>0.02312138728323699</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1764705882352941</v>
+        <v>0.1849710982658959</v>
       </c>
       <c r="R7">
-        <v>0.0718954248366013</v>
+        <v>0.07514450867052024</v>
       </c>
       <c r="S7">
-        <v>0.3856209150326798</v>
+        <v>0.3872832369942196</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1245059288537549</v>
+        <v>0.1274685816876122</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03952569169960474</v>
+        <v>0.03590664272890485</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07312252964426877</v>
+        <v>0.0718132854578097</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1284584980237154</v>
+        <v>0.1310592459605027</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01383399209486166</v>
+        <v>0.01615798922800718</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.158102766798419</v>
+        <v>0.1651705565529623</v>
       </c>
       <c r="R8">
-        <v>0.08102766798418973</v>
+        <v>0.0843806104129264</v>
       </c>
       <c r="S8">
-        <v>0.3814229249011858</v>
+        <v>0.3680430879712747</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1118421052631579</v>
+        <v>0.1173184357541899</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0131578947368421</v>
+        <v>0.01675977653631285</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07236842105263158</v>
+        <v>0.0670391061452514</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07894736842105263</v>
+        <v>0.09497206703910614</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.04605263157894737</v>
+        <v>0.03910614525139665</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1644736842105263</v>
+        <v>0.1675977653631285</v>
       </c>
       <c r="R9">
-        <v>0.131578947368421</v>
+        <v>0.1173184357541899</v>
       </c>
       <c r="S9">
-        <v>0.3815789473684211</v>
+        <v>0.3798882681564246</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1292962356792144</v>
+        <v>0.1297257227575982</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0204582651391162</v>
+        <v>0.02001482579688658</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06382978723404255</v>
+        <v>0.06597479614529281</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1153846153846154</v>
+        <v>0.1193476649369904</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0220949263502455</v>
+        <v>0.02075611564121571</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2004909983633388</v>
+        <v>0.195700518902891</v>
       </c>
       <c r="R10">
-        <v>0.07037643207855974</v>
+        <v>0.07338769458858414</v>
       </c>
       <c r="S10">
-        <v>0.3780687397708674</v>
+        <v>0.3750926612305411</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1485507246376812</v>
+        <v>0.1399317406143345</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1123188405797101</v>
+        <v>0.10580204778157</v>
       </c>
       <c r="K11">
-        <v>0.2210144927536232</v>
+        <v>0.2116040955631399</v>
       </c>
       <c r="L11">
-        <v>0.5036231884057971</v>
+        <v>0.5290102389078498</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01449275362318841</v>
+        <v>0.0136518771331058</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6595744680851063</v>
+        <v>0.6918238993710691</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2836879432624114</v>
+        <v>0.2578616352201258</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.01418439716312057</v>
+        <v>0.01257861635220126</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0425531914893617</v>
+        <v>0.03773584905660377</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6285714285714286</v>
+        <v>0.6585365853658537</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2857142857142857</v>
+        <v>0.2682926829268293</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08571428571428572</v>
+        <v>0.07317073170731707</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03626943005181347</v>
+        <v>0.03720930232558139</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1865284974093264</v>
+        <v>0.1906976744186047</v>
       </c>
       <c r="I15">
-        <v>0.04663212435233161</v>
+        <v>0.05116279069767442</v>
       </c>
       <c r="J15">
-        <v>0.3264248704663212</v>
+        <v>0.3162790697674419</v>
       </c>
       <c r="K15">
-        <v>0.06217616580310881</v>
+        <v>0.06046511627906977</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04663212435233161</v>
+        <v>0.05116279069767442</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2953367875647668</v>
+        <v>0.2930232558139535</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03524229074889868</v>
+        <v>0.03125</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1938325991189427</v>
+        <v>0.2109375</v>
       </c>
       <c r="I16">
-        <v>0.05286343612334802</v>
+        <v>0.0625</v>
       </c>
       <c r="J16">
-        <v>0.4229074889867842</v>
+        <v>0.40625</v>
       </c>
       <c r="K16">
-        <v>0.118942731277533</v>
+        <v>0.11328125</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01762114537444934</v>
+        <v>0.015625</v>
       </c>
       <c r="N16">
-        <v>0.004405286343612335</v>
+        <v>0.00390625</v>
       </c>
       <c r="O16">
-        <v>0.05286343612334802</v>
+        <v>0.05859375</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1013215859030837</v>
+        <v>0.09765625</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02877697841726619</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2470023980815348</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="I17">
-        <v>0.0671462829736211</v>
+        <v>0.07792207792207792</v>
       </c>
       <c r="J17">
-        <v>0.3836930455635492</v>
+        <v>0.3852813852813853</v>
       </c>
       <c r="K17">
-        <v>0.07913669064748201</v>
+        <v>0.07575757575757576</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.009592326139088728</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="N17">
-        <v>0.002398081534772182</v>
+        <v>0.002164502164502165</v>
       </c>
       <c r="O17">
-        <v>0.05755395683453238</v>
+        <v>0.05627705627705628</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1247002398081535</v>
+        <v>0.119047619047619</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.005917159763313609</v>
+        <v>0.005181347150259068</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2248520710059172</v>
+        <v>0.2227979274611399</v>
       </c>
       <c r="I18">
-        <v>0.09467455621301775</v>
+        <v>0.08808290155440414</v>
       </c>
       <c r="J18">
-        <v>0.4437869822485207</v>
+        <v>0.4455958549222798</v>
       </c>
       <c r="K18">
-        <v>0.07692307692307693</v>
+        <v>0.07253886010362694</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01775147928994083</v>
+        <v>0.02072538860103627</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04142011834319527</v>
+        <v>0.04145077720207254</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09467455621301775</v>
+        <v>0.1036269430051813</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01755786113328013</v>
+        <v>0.01746724890829694</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2274541101356744</v>
+        <v>0.2241630276564774</v>
       </c>
       <c r="I19">
-        <v>0.06863527533918595</v>
+        <v>0.07132459970887918</v>
       </c>
       <c r="J19">
-        <v>0.3591380686352754</v>
+        <v>0.3588064046579331</v>
       </c>
       <c r="K19">
-        <v>0.1005586592178771</v>
+        <v>0.09970887918486172</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01995211492418196</v>
+        <v>0.02037845705967977</v>
       </c>
       <c r="N19">
-        <v>0.003192338387869114</v>
+        <v>0.002911208151382824</v>
       </c>
       <c r="O19">
-        <v>0.05506783719074222</v>
+        <v>0.05604075691411936</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1484437350359138</v>
+        <v>0.1491994177583697</v>
       </c>
     </row>
   </sheetData>
